--- a/mvst.xlsx
+++ b/mvst.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,56 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>539011121</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Anna_Safonova_life</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3-минутная дыхательная пауза</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Breathing Space</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:34:22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Получилось расслабиться</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Фокус на внутреннем мире</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Замедление</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Сложно успокоить мысли</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2025-10-19 12:34:22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
